--- a/Grafiken/MVS_Results.xlsx
+++ b/Grafiken/MVS_Results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="68">
   <si>
     <t>Area</t>
   </si>
@@ -111,12 +111,6 @@
     <t>3/14</t>
   </si>
   <si>
-    <t>0.785</t>
-  </si>
-  <si>
-    <t>0.214</t>
-  </si>
-  <si>
     <t>1/14</t>
   </si>
   <si>
@@ -223,6 +217,9 @@
   </si>
   <si>
     <t>Study Area</t>
+  </si>
+  <si>
+    <t>0.78</t>
   </si>
 </sst>
 </file>
@@ -423,7 +420,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -441,24 +438,18 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
@@ -759,7 +750,7 @@
   <dimension ref="B2:N53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
@@ -793,45 +784,45 @@
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="2:14" ht="15" thickBot="1">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" s="17" t="s">
+      <c r="K3" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="21" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:14">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="23" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="3">
@@ -858,7 +849,7 @@
       <c r="J4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="17" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="3" t="s">
@@ -869,7 +860,7 @@
       </c>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="19"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="4">
         <v>2</v>
       </c>
@@ -894,7 +885,7 @@
       <c r="J5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="K5" s="18" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="4" t="s">
@@ -905,7 +896,7 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="15" thickBot="1">
-      <c r="B6" s="19"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="4">
         <v>3</v>
       </c>
@@ -930,7 +921,7 @@
       <c r="J6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="32" t="s">
+      <c r="K6" s="18" t="s">
         <v>26</v>
       </c>
       <c r="L6" s="4" t="s">
@@ -941,8 +932,8 @@
       </c>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="20" t="s">
-        <v>64</v>
+      <c r="B7" s="24" t="s">
+        <v>62</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>23</v>
@@ -950,19 +941,19 @@
       <c r="D7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J7" s="3" t="s">
@@ -975,12 +966,12 @@
         <v>29</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="19" t="s">
-        <v>67</v>
+      <c r="B8" s="23" t="s">
+        <v>65</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>27</v>
@@ -988,19 +979,19 @@
       <c r="D8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J8" s="4" t="s">
@@ -1013,30 +1004,30 @@
         <v>30</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="15" thickBot="1">
-      <c r="B9" s="21"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="27" t="s">
+      <c r="F9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="I9" s="5" t="s">
         <v>21</v>
       </c>
       <c r="J9" s="5" t="s">
@@ -1053,8 +1044,8 @@
       </c>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="19" t="s">
-        <v>64</v>
+      <c r="B10" s="23" t="s">
+        <v>62</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>23</v>
@@ -1062,19 +1053,19 @@
       <c r="D10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="26" t="s">
         <v>16</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J10" s="4" t="s">
@@ -1084,15 +1075,15 @@
         <v>13</v>
       </c>
       <c r="L10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="11" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="11" spans="2:14">
-      <c r="B11" s="19" t="s">
-        <v>66</v>
+      <c r="B11" s="23" t="s">
+        <v>64</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>27</v>
@@ -1100,19 +1091,19 @@
       <c r="D11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="27" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="23" t="s">
+      <c r="I11" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J11" s="4" t="s">
@@ -1122,33 +1113,33 @@
         <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="M11" s="7" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="12" spans="2:14" ht="15" thickBot="1">
-      <c r="B12" s="19"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="26" t="s">
+      <c r="F12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="28" t="s">
         <v>18</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="27" t="s">
+      <c r="I12" s="5" t="s">
         <v>21</v>
       </c>
       <c r="J12" s="4" t="s">
@@ -1161,12 +1152,12 @@
         <v>30</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="2:14">
-      <c r="B13" s="20" t="s">
-        <v>64</v>
+      <c r="B13" s="24" t="s">
+        <v>62</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>23</v>
@@ -1174,19 +1165,19 @@
       <c r="D13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J13" s="3" t="s">
@@ -1196,15 +1187,15 @@
         <v>13</v>
       </c>
       <c r="L13" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="M13" s="10" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="19" t="s">
-        <v>65</v>
+      <c r="B14" s="23" t="s">
+        <v>63</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>27</v>
@@ -1212,19 +1203,19 @@
       <c r="D14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J14" s="4" t="s">
@@ -1234,33 +1225,33 @@
         <v>13</v>
       </c>
       <c r="L14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="M14" s="11" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="15" spans="2:14" ht="15" thickBot="1">
-      <c r="B15" s="21"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="F15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J15" s="5" t="s">
@@ -1277,8 +1268,8 @@
       </c>
     </row>
     <row r="16" spans="2:14">
-      <c r="B16" s="20" t="s">
-        <v>68</v>
+      <c r="B16" s="24" t="s">
+        <v>66</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>23</v>
@@ -1286,19 +1277,19 @@
       <c r="D16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="G16" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J16" s="3" t="s">
@@ -1308,15 +1299,15 @@
         <v>13</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="2:14">
-      <c r="B17" s="19" t="s">
-        <v>38</v>
+      <c r="B17" s="23" t="s">
+        <v>36</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>27</v>
@@ -1324,19 +1315,19 @@
       <c r="D17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="G17" s="15" t="s">
         <v>17</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="23" t="s">
+      <c r="I17" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J17" s="4" t="s">
@@ -1346,33 +1337,33 @@
         <v>13</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="15" thickBot="1">
-      <c r="B18" s="21"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="28" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="30" t="s">
+      <c r="G18" s="16" t="s">
         <v>18</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="27" t="s">
+      <c r="I18" s="5" t="s">
         <v>21</v>
       </c>
       <c r="J18" s="5" t="s">
@@ -1382,15 +1373,15 @@
         <v>26</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M18" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:14">
-      <c r="B19" s="20" t="s">
-        <v>48</v>
+      <c r="B19" s="24" t="s">
+        <v>46</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>23</v>
@@ -1399,25 +1390,25 @@
         <v>2</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="13" t="s">
-        <v>54</v>
-      </c>
       <c r="H19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="I19" s="10" t="s">
-        <v>59</v>
-      </c>
       <c r="J19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K19" s="31" t="s">
-        <v>52</v>
+        <v>33</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>50</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>24</v>
@@ -1428,7 +1419,7 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="2:14">
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="23" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -1438,25 +1429,25 @@
         <v>3</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="H20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="J20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J20" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K20" s="33" t="s">
-        <v>58</v>
+      <c r="K20" s="19" t="s">
+        <v>56</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>24</v>
@@ -1467,7 +1458,7 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="2:14" ht="15" thickBot="1">
-      <c r="B21" s="21"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
@@ -1475,25 +1466,25 @@
         <v>4</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="J21" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K21" s="34" t="s">
-        <v>63</v>
+      <c r="K21" s="20" t="s">
+        <v>61</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>24</v>
@@ -1504,8 +1495,8 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="2:14">
-      <c r="B22" s="20" t="s">
-        <v>48</v>
+      <c r="B22" s="24" t="s">
+        <v>46</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>23</v>
@@ -1513,29 +1504,29 @@
       <c r="D22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="22" t="s">
+      <c r="E22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="H22" s="22" t="s">
+      <c r="H22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I22" s="22" t="s">
-        <v>59</v>
-      </c>
       <c r="J22" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>15</v>
@@ -1543,7 +1534,7 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="2:14">
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="23" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -1552,29 +1543,29 @@
       <c r="D23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="23" t="s">
+      <c r="E23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="H23" s="23" t="s">
+      <c r="H23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I23" s="23" t="s">
+      <c r="J23" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="K23" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>26</v>
@@ -1582,8 +1573,8 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="2:14" ht="15" thickBot="1">
-      <c r="B24" s="21" t="s">
-        <v>38</v>
+      <c r="B24" s="25" t="s">
+        <v>36</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>28</v>
@@ -1591,29 +1582,29 @@
       <c r="D24" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="H24" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="27" t="s">
+      <c r="E24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J24" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="J24" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="K24" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M24" s="5" t="s">
         <v>15</v>
@@ -2029,6 +2020,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="M22:M24 K4:K24 M9:M18" numberStoredAsText="1"/>
+    <ignoredError sqref="L10:L14 L7:L8 I19:I20 I22:I23 G20 G23 E5 E8 E11 E14 E17 E20 E23" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
